--- a/pred_ohlcv/54_21/2019-10-09 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-09 ZRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>19065.55019065744</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>28475.29819065744</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>29105.19379065744</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>28606.19379065744</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>35173.51089065744</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>38445.98343830845</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>38445.98343830845</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>37486.08063830844</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>37511.08063830844</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>36779.33103830844</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>36779.33103830844</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>38450.52023830844</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>45229.11677164178</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>44788.70797164178</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>44684.16667164178</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>49698.96217164178</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>46244.39767164178</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>45138.62777164178</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>44401.80857164178</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>44405.88017164179</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>43701.66987164179</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>43949.71817164179</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>43950.71817164179</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>43383.67807164179</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>43388.42487164179</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>43729.42487164179</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>43729.42487164179</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>43634.90337164179</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>43634.90337164179</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>43634.90337164179</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>43489.94327164179</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>43489.94327164179</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>44071.91962299315</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>43616.17052299315</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>43616.17052299315</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>41136.17052299315</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>41599.89782299315</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>41599.89782299315</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>41599.89782299315</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>41680.64402299315</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>25356.44752299315</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>23994.76402299315</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>23994.76402299315</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>23994.76402299315</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>23994.76402299315</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>23994.76402299315</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>21442.12082299315</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>21442.12082299315</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>24881.46522299315</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>25338.89612299315</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>25994.48252299315</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>34562.59922299315</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>34087.09748051824</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>28058.92648051824</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>27025.77528051824</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>49494.62448051824</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>47157.51008051824</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>47591.45988051824</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>47422.51738051824</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>45688.59738051824</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>45500.67378051824</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>45500.67378051824</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>44432.98008051824</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>44432.98008051824</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>42184.09778051824</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>42309.68548051824</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>42338.85538051824</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>42338.85538051824</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>54392.96398051824</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>54392.96398051824</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>54392.96398051824</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>54506.65198051824</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>51343.97198051824</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>51343.97198051824</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>50893.78608051824</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>50893.78608051824</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>51151.78608051824</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>51151.78608051824</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>48071.15158051824</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>48072.15158051824</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>47921.15158051824</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>45393.30088051825</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>45394.30088051825</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>63491.37708051824</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>63486.37708051824</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>63983.90838051825</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>63963.95838051825</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>87188.71518051825</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>87600.71518051825</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>87600.71518051825</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>87595.38978051825</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>87595.38978051825</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>87055.53398051824</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>92055.53398051824</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>92294.94365739121</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>92219.49845739121</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>92574.0856573912</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>92074.0335573912</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>92084.0325573912</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>92084.0325573912</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>92084.0325573912</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>94230.9289573912</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>94230.9289573912</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>94076.60805739119</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>94223.52935739119</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>94223.52935739119</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>101946.9588573912</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>101946.9588573912</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>101946.9588573912</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>101182.2294573912</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>101497.4786483297</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>101335.5247483297</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>101469.5327483297</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>101469.5327483297</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>101469.5327483297</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>102268.8932483297</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>99181.77344832971</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>98769.48754832971</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>103040.2752483297</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>96862.9277483297</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>92373.96854832971</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>94339.59604832971</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>94439.5444483297</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>94439.5444483297</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>93430.94501111287</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>90122.19911111287</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>90122.19911111287</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>90122.19911111287</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>93470.72338916895</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>87272.35888916896</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>87274.35888916896</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>81837.10118916896</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>80181.11468916896</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>80181.11468916896</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>80181.11468916896</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>80923.35578916896</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>76840.63208916895</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>76840.63208916895</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>76840.63208916895</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>76854.05128916896</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>77098.89578916896</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>79067.25688916896</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>78418.05808916896</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>69249.35978916896</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>73064.83448916896</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>73064.83448916896</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>73064.83448916896</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>73216.10518916896</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>71017.82948916896</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>74026.34018916896</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>76100.12678916896</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>76100.12678916896</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>84322.91918916897</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>94216.04673837531</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>118289.4058916926</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>97949.93709169261</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>96665.93709169261</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>120536.3161916926</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>120396.7227916926</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>120397.7227916926</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>114376.9080916926</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>114520.2763456609</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>114520.2763456609</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>114343.0939456608</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>114343.0939456608</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>133048.1571456608</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>153837.1165456608</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>234061.8295640409</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>234061.8295640409</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>221649.9500640409</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>206774.6899640409</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>192388.9711640409</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>204179.4417924812</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>208788.4716924812</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>208788.4716924812</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>207435.8250924812</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>201749.3104924812</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>197495.1062924812</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>225221.5161924812</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>225221.5161924812</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>228958.8497924812</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>242519.0104924812</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>233344.3617924812</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>233344.3617924812</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>233977.2058924812</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>233883.3814924812</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>233883.3814924812</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>231973.5564924812</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>223906.0422924812</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>223906.0422924812</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>226241.9190924812</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>226253.9190924812</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>211909.4556924812</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>241044.8687924812</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>244874.5407924812</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>244045.0723924812</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>241487.6015924812</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>241487.6015924812</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>241487.6015924812</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>241489.6015924812</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>241489.6015924812</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>241489.6015924812</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>239541.4840924812</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>251233.2737924812</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>238864.2177924812</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>246172.5517674812</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>246172.5517674812</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>244164.5245674812</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>244164.5245674812</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>238711.3742674812</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>238032.2719674812</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>233192.5058674812</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>233192.5058674812</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>233763.3697674812</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>232941.9447674812</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>232941.9447674812</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>265918.0016324042</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>263935.2571324043</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>266100.6833324042</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>266100.6833324042</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>266091.9458324042</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>266091.9458324042</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>266224.9458324042</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>266224.9458324042</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>249760.1145324043</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>248358.9058324043</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>248359.9058324043</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>243047.4470324043</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>200980.0835324043</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>189598.9943324043</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>149079.0371980484</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>149079.0371980484</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>149079.0371980484</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>157520.3404980484</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>155744.8156980484</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>159374.5756980484</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>173504.4549980484</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>183430.3742980484</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>183430.3742980484</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>183430.3742980484</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>176901.4885980484</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>178439.2036980484</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>176756.2550980484</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>176898.9844980484</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>176899.9844980484</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>200422.4203414219</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>200422.4203414219</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>202139.2555414219</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>202139.2555414219</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>176907.4614414219</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>169478.1771414219</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>168209.1193414219</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>168209.1193414219</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>168210.1193414219</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>168210.1193414219</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>168202.9434414219</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>162300.5857414219</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>171451.0112414219</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>157887.3179414219</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>158175.4627414219</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>158175.4627414219</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>162351.6379414219</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>161722.1324414219</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>161723.1324414219</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>161723.1324414219</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>161711.5956414219</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>161877.0633414219</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>161717.8370414219</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>161718.8370414219</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>161541.6489414219</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>161541.6489414219</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>160693.3788414219</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>161553.2400414219</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>161498.4827414219</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>161611.7157414219</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>159492.1447414219</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>159492.1447414219</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>158444.6922414219</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>158444.6922414219</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-147415.7133688938</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-123401.1592688938</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-119766.069662031</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-121170.272462031</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-120946.076962031</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-120946.076962031</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-120946.076962031</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-121946.076962031</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-119946.076962031</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-112951.076962031</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-112489.076962031</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-111057.427862031</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-101994.636062031</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-97218.82524442094</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-99934.51804442094</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-99834.51804442094</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-99834.51804442094</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-09 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-09 ZRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>19065.55019065744</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>28475.29819065744</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>29105.19379065744</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>28606.19379065744</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>35173.51089065744</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>38445.98343830845</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>38445.98343830845</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>37486.08063830844</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>37511.08063830844</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>36779.33103830844</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>45229.11677164178</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>44788.70797164178</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>44684.16667164178</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>21442.12082299315</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>22048.89612299315</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>51343.97198051824</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>51343.97198051824</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>50893.78608051824</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>51151.78608051824</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>48071.15158051824</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>48072.15158051824</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>47921.15158051824</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>63486.37708051824</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>87188.71518051825</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>87600.71518051825</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>87600.71518051825</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>87595.38978051825</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>87595.38978051825</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>87055.53398051824</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>92055.53398051824</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>92294.94365739121</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>92219.49845739121</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>92574.0856573912</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>92074.0335573912</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>92084.0325573912</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>92084.0325573912</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>92084.0325573912</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>94230.9289573912</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>94230.9289573912</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>94076.60805739119</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>94223.52935739119</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>94223.52935739119</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>101946.9588573912</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>101946.9588573912</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>101946.9588573912</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>101182.2294573912</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>101497.4786483297</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>101335.5247483297</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>101469.5327483297</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>101469.5327483297</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>101469.5327483297</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>102268.8932483297</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>99181.77344832971</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>98769.48754832971</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>103040.2752483297</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>96862.9277483297</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>92373.96854832971</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>94339.59604832971</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>94439.5444483297</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>94439.5444483297</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>93430.94501111287</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>90122.19911111287</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>90122.19911111287</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>90122.19911111287</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>93470.72338916895</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>87272.35888916896</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>87274.35888916896</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>81837.10118916896</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>80181.11468916896</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>80181.11468916896</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>80181.11468916896</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>80923.35578916896</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>76840.63208916895</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>76840.63208916895</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>76840.63208916895</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>76854.05128916896</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>77098.89578916896</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>79067.25688916896</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>78418.05808916896</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>69249.35978916896</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>73064.83448916896</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>73064.83448916896</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>73064.83448916896</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>73216.10518916896</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>71017.82948916896</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>74026.34018916896</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>76100.12678916896</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>76100.12678916896</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>84322.91918916897</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>94216.04673837531</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>118289.4058916926</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>97949.93709169261</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>96665.93709169261</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>120536.3161916926</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>120396.7227916926</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>120397.7227916926</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>114376.9080916926</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>114520.2763456609</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>114520.2763456609</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>114343.0939456608</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>114343.0939456608</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>133048.1571456608</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>153837.1165456608</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>234061.8295640409</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>234061.8295640409</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>221649.9500640409</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>206774.6899640409</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>192388.9711640409</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>192388.9711640409</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>203257.3128924812</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>204179.4417924812</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>208788.4716924812</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>208788.4716924812</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>207435.8250924812</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>201749.3104924812</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>197495.1062924812</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>225221.5161924812</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>225221.5161924812</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>228958.8497924812</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>228958.8497924812</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>242519.0104924812</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>233344.3617924812</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>233344.3617924812</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>233977.2058924812</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>233883.3814924812</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>233883.3814924812</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>231973.5564924812</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>223906.0422924812</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>223906.0422924812</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>226241.9190924812</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>226253.9190924812</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>211909.4556924812</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>241044.8687924812</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>183430.3742980484</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>176901.4885980484</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>178439.2036980484</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>176756.2550980484</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>176898.9844980484</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>176899.9844980484</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>200422.4203414219</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>200422.4203414219</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>202139.2555414219</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>202139.2555414219</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>176907.4614414219</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>169478.1771414219</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>168209.1193414219</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>168209.1193414219</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>168210.1193414219</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>168210.1193414219</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>168202.9434414219</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>162300.5857414219</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>171451.0112414219</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>157887.3179414219</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>158175.4627414219</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>162351.6379414219</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>161722.1324414219</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>161723.1324414219</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>161723.1324414219</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>161711.5956414219</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>161877.0633414219</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>161717.8370414219</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>161718.8370414219</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>161541.6489414219</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>161541.6489414219</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>160693.3788414219</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>161553.2400414219</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>161498.4827414219</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>161611.7157414219</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>159492.1447414219</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>159492.1447414219</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-147415.7133688938</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-117746.4539688938</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-112946.076962031</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-112945.076962031</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-112951.076962031</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-112951.076962031</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-112951.076962031</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-112951.076962031</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-112489.076962031</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-111057.427862031</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-101994.636062031</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-97218.82524442094</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-99934.51804442094</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-99834.51804442094</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-99834.51804442094</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
